--- a/utils/cleaners/nombres_de_columnas.xlsx
+++ b/utils/cleaners/nombres_de_columnas.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="498">
   <si>
     <t xml:space="preserve">DOCENTES COLUMNAS ORIGINALES</t>
   </si>
@@ -793,7 +793,7 @@
     <t xml:space="preserve">2.4 Sé de alguien en mi familia que utiliza conocimientos relacionados a esta asignatura en su ocupación</t>
   </si>
   <si>
-    <t xml:space="preserve">comentarios 1-2</t>
+    <t xml:space="preserve">Comentarios 1-2</t>
   </si>
   <si>
     <t xml:space="preserve">3.1 Siento que soy capaz de explicar lo que es el pensamiento computacional</t>
@@ -859,25 +859,25 @@
     <t xml:space="preserve">Comentarios conocimiento</t>
   </si>
   <si>
-    <t xml:space="preserve">¿Quién crees que ganará el concurso de matemáticas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ¿Quién crees que es capitán del barco?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Quién es la persona excluida de la construcción de la casa de madera?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Quién crees que es el personaje que está sentado y esperando junto a la ventana?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Quién es la persona que trabaja en educación?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Quién crees que es la persona que prefiere estudiar ingeniería?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Quién crees que toma el curso de historia del arte?</t>
+    <t xml:space="preserve">5.1 ¿Quién crees que ganará el concurso de matemáticas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2 ¿Quién crees que es capitán del barco?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3 ¿Quién es la persona excluida de la construcción de la casa de madera?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4 ¿Quién crees que es el personaje que está sentado y esperando junto a la ventana?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5 ¿Quién es la persona que trabaja en educación?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6 ¿Quién crees que es la persona que prefiere estudiar ingeniería?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eliminar - ¿Quién crees que toma el curso de historia del arte?</t>
   </si>
   <si>
     <t xml:space="preserve">4.1 Es alarmante que el ritmo de desaparición de especies en la Amazonia Colombiana sea cada vez mayor.</t>
@@ -901,7 +901,7 @@
     <t xml:space="preserve">4.7 Me preocupa lo que sucede con la tala de árboles.</t>
   </si>
   <si>
-    <t xml:space="preserve">Comenarios medioambiente</t>
+    <t xml:space="preserve">Comentarios medioambiente</t>
   </si>
   <si>
     <t xml:space="preserve">1.2 Matemáticas</t>
@@ -1276,814 +1276,244 @@
     <t xml:space="preserve">CHEQUEO LIDER DESEADAS</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1.1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Los docentes encargados del área son los responsables de definir lo que se enseña</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1.2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">El plan de estudios del área cuenta con mejoras realizadas por los docentes de la IE gracias a espacios colaborativos</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1.3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">El plan de estudio incluye actividades básicas de ofimática y/o alfabetización digital, programación y/o desarrollo del pensamiento computacional.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1.4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">En el plan de estudio se da mayor relevancia al pensamiento computacional</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1.5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">El plan de estudio del área promueve la transición desde la alfabetización digital a las ciencias de la computación</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1.6 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">El plan de estudios del área comprende el pensamiento computacional y su impacto dentro del proceso enseñanza-aprendizaje</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1.7 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">El plan de estudios del área es coherente con la transición de un grado a otro y permite al estudiante desarrollar conocimientos, habilidades y comprensión del pensamiento computacional</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1.8 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">El plan de estudios del área incluye trabajo práctico para el desarrollo del pensamiento computacional.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1.9 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">El plan de estudio del área cuenta con espacios de socialización a los estudiantes de personas que trabajan en ocupaciones relacionadas al área STEM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1.10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">El plan de estudio de las asignaturas No-STEM integran eficientemente los aprendizajes adquiridos por sus estudiantes sobre pensamiento computacional</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1.11 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">La visión institucional menciona el impacto y lugar de la enseñanza del desarrollo del pensamiento computacional dentro del plan de estudios.</t>
-    </r>
+    <t xml:space="preserve">1.1 Los docentes encargados del área son los responsables de definir lo que se enseña</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2 El plan de estudios del área cuenta con mejoras realizadas por los docentes de la IE gracias a espacios colaborativos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3 El plan de estudio incluye actividades básicas de ofimática y/o alfabetización digital, programación y/o desarrollo del pensamiento computacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4 En el plan de estudio se da mayor relevancia al pensamiento computacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5 El plan de estudio del área promueve la transición desde la alfabetización digital a las ciencias de la computación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6 El plan de estudios del área comprende el pensamiento computacional y su impacto dentro del proceso enseñanza-aprendizaje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7 El plan de estudios del área es coherente con la transición de un grado a otro y permite al estudiante desarrollar conocimientos, habilidades y comprensión del pensamiento computacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8 El plan de estudios del área incluye trabajo práctico para el desarrollo del pensamiento computacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9 El plan de estudio del área cuenta con espacios de socialización a los estudiantes de personas que trabajan en ocupaciones relacionadas al área STEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10 El plan de estudio de las asignaturas No-STEM integran eficientemente los aprendizajes adquiridos por sus estudiantes sobre pensamiento computacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11 La visión institucional menciona el impacto y lugar de la enseñanza del desarrollo del pensamiento computacional dentro del plan de estudios.</t>
   </si>
   <si>
     <t xml:space="preserve">Comentarios P1</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2.1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">La IE identifica a los estudiantes que cuentan con necesidades educativas especiales</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2.2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">La IE implementa algunas acciones para brindar apoyo a los estudiantes con necesidades educativas especiales en su participación en el área</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2.3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">La IE establece un plan para la atención de estudiantes con necesidades educativas especiales para su participación en actividades asociadas al pensamiento computacional</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2.4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">La IE promueve la participación de personas con necesidades educativas especiales en actividades extracurricules para garantiza la inclusión y participación en áreas STEM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2.5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">La IE genera estrategias que visibilizan modelos a seguir en carreras en áreas STEM en estudiantes con necesidades educativas especiales</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2.6 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Los docentes del área que incluyen pensamiento computacional y/o ciencias de la computación muestran la asignatura como accesible para todos(as)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2.7 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">La IE promueve al trabajo conjunto entre los docente y profesionales externos para impulsar prácticas inclusivas en la enseñanza de la computación y/o pensamiento computacional</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2.8 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">El plan de estudio considera aspectos para la inclusión de estudiantes con trastornos de aprendizaje y/o discapacidad</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2.9 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">El plan de estudios del área incluye acciones de apoyo y adecuaciones a los materiales educativos articuladas con las estrategias de atención de estudiantes con necesidades educativas especiales</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2.10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> El plan de estudios del área y los recursos educativos se revisan con apoyo de personal experto en la atención a estudiantes con necesidades educativas especiales</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2.11 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">El plan de estudios del área hace explícita la pedagogía a utilizar que incluye adaptaciones para estudiantes con necesidades educativas especiales</t>
-    </r>
+    <t xml:space="preserve">2.1 La IE identifica a los estudiantes que cuentan con necesidades educativas especiales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2 La IE implementa algunas acciones para brindar apoyo a los estudiantes con necesidades educativas especiales en su participación en el área</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3 La IE establece un plan para la atención de estudiantes con necesidades educativas especiales para su participación en actividades asociadas al pensamiento computacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4 La IE promueve la participación de personas con necesidades educativas especiales en actividades extracurricules para garantiza la inclusión y participación en áreas STEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5 La IE genera estrategias que visibilizan modelos a seguir en carreras en áreas STEM en estudiantes con necesidades educativas especiales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6 Los docentes del área que incluyen pensamiento computacional y/o ciencias de la computación muestran la asignatura como accesible para todos(as)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7 La IE promueve al trabajo conjunto entre los docente y profesionales externos para impulsar prácticas inclusivas en la enseñanza de la computación y/o pensamiento computacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8 El plan de estudio considera aspectos para la inclusión de estudiantes con trastornos de aprendizaje y/o discapacidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9 El plan de estudios del área incluye acciones de apoyo y adecuaciones a los materiales educativos articuladas con las estrategias de atención de estudiantes con necesidades educativas especiales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10  El plan de estudios del área y los recursos educativos se revisan con apoyo de personal experto en la atención a estudiantes con necesidades educativas especiales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11 El plan de estudios del área hace explícita la pedagogía a utilizar que incluye adaptaciones para estudiantes con necesidades educativas especiales</t>
   </si>
   <si>
     <t xml:space="preserve">Comentarios P2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3.1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">La IE hace seguimiento de las diferencias de género en los resultados y el desempeño académico de niños y niñas en áreas STEM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3.2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">La IE crea espacios de reflexión sobre las causas y orígenes de las diferencias entre niños y niñas</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3.3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">La IE realiza iniciativas cívicas y campañas comunicativas con estudiantes para visibilizar las diferencias de género en áreas STEM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3.4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">La IE toma acciones concretas para disminuir la diferencias de resultados entre niños y niñas Por ejemplo: organizar competencias diferenciadas entre niños y niñas en áreas STEM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3.5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">La IE tiene alianzas con entidades externas que promuevan la equidad género en las áreas STEM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3.6 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">La institución posee una propuesta estructurada donde garantiza que los niños y niñas continúen su trayectoria de formación educativa en pensamiento computacional y/o ciencias de la computación.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3.7 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">El plan de estudios del área promueve en niños y niñas el desarrollo de sus conocimientos, habilidades y actitudes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3.8 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">El plan de estudio del área cuentan con una estructura clara que permite disminuir las diferencias en el desempeño de niños y niñas</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3.9 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">El plan de estudio del área se encuentran en constante revisión e incorporan nuevas estrategias para promover la igualdad en el desempeño de niños y niñas</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3.10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">El plan de estudio considera aspectos para disminuir las diferencias entre niños y niñas y la inclusión de estudiantes con trastornos de aprendizaje y/o discapacidad</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4.1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">La IE tiene en cuenta el plan de estudios para determinar las actividades de desarrollo profesional</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4.2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">La IE identifica las necesidades de los docentes para determinar actividades de desarrollo profesional</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4.3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">La IE cuenta con espacios de discusión y planeación para actividades de desarrollo profesional</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4.4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">La IE capacita a los docentes en temas de equidad de género y apoya la implementación de acciones afirmativas en el aula de clases</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4.5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">La IE lleva un registro formal de las necesidades y participación de los docentes en actividades de desarrollo profesional</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4.6 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Los docentes de otras áreas se interesan por el área de tecnología e informática y la integran a su enseñanza</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4.7 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">La IE incentiva el trabajo coordinado entre los/las responsables del área</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4.8 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">La IE tiene en cuenta los conocimientos del personal docente para enriquecer la visión institucional sobre la enseñanza de la computación y potenciar la comprensión de las/los estudiantes y desarrollo</t>
-    </r>
+    <t xml:space="preserve">3.1 La IE hace seguimiento de las diferencias de género en los resultados y el desempeño académico de niños y niñas en áreas STEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2 La IE crea espacios de reflexión sobre las causas y orígenes de las diferencias entre niños y niñas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3 La IE realiza iniciativas cívicas y campañas comunicativas con estudiantes para visibilizar las diferencias de género en áreas STEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4 La IE toma acciones concretas para disminuir la diferencias de resultados entre niños y niñas Por ejemplo: organizar competencias diferenciadas entre niños y niñas en áreas STEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5 La IE tiene alianzas con entidades externas que promuevan la equidad género en las áreas STEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6 La institución posee una propuesta estructurada donde garantiza que los niños y niñas continúen su trayectoria de formación educativa en pensamiento computacional y/o ciencias de la computación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7 El plan de estudios del área promueve en niños y niñas el desarrollo de sus conocimientos, habilidades y actitudes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8 El plan de estudio del área cuentan con una estructura clara que permite disminuir las diferencias en el desempeño de niños y niñas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9 El plan de estudio del área se encuentran en constante revisión e incorporan nuevas estrategias para promover la igualdad en el desempeño de niños y niñas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10 El plan de estudio considera aspectos para disminuir las diferencias entre niños y niñas y la inclusión de estudiantes con trastornos de aprendizaje y/o discapacidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1 La IE tiene en cuenta el plan de estudios para determinar las actividades de desarrollo profesional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2 La IE identifica las necesidades de los docentes para determinar actividades de desarrollo profesional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3 La IE cuenta con espacios de discusión y planeación para actividades de desarrollo profesional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4 La IE capacita a los docentes en temas de equidad de género y apoya la implementación de acciones afirmativas en el aula de clases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5 La IE lleva un registro formal de las necesidades y participación de los docentes en actividades de desarrollo profesional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6 Los docentes de otras áreas se interesan por el área de tecnología e informática y la integran a su enseñanza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7 La IE incentiva el trabajo coordinado entre los/las responsables del área</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8 La IE tiene en cuenta los conocimientos del personal docente para enriquecer la visión institucional sobre la enseñanza de la computación y potenciar la comprensión de las/los estudiantes y desarrollo</t>
   </si>
   <si>
     <t xml:space="preserve">4.9 La IE promueve al trabajo conjunto entre los docente y profesionales líderes externos para impulsar prácticas inclusivas en la enseñanza de la computación y/o pensamiento computacional</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4.10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">El Consejo Directivo del colegio está al tanto de que en la institución se está enseñando ciencias de la computación, y se encuentran involucrados en el proceso.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4.11 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Las directivas y el Consejo Directivo participan y evalúan la implementación de sistemas eficientes del plan de estudios del área.]</t>
-    </r>
+    <t xml:space="preserve">4.10 El Consejo Directivo del colegio está al tanto de que en la institución se está enseñando ciencias de la computación, y se encuentran involucrados en el proceso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11 Las directivas y el Consejo Directivo participan y evalúan la implementación de sistemas eficientes del plan de estudios del área.]</t>
   </si>
   <si>
     <t xml:space="preserve">Comentarios P4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan de área originales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A continuación, se mencionará una lista de aspectos a evaluar al hacer la revisión del plan de estudio del área tecnología e informática  [En el plan de estudios se especifica como responsables de su elaboración a los docentes encargados del área]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A continuación, se mencionará una lista de aspectos a evaluar al hacer la revisión del plan de estudio del área tecnología e informática  [El plan de estudio incluye actividades básicas de ofimática y/o alfabetización digital, y de programación y/o desarrollo del pensamiento computacional.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A continuación, se mencionará una lista de aspectos a evaluar al hacer la revisión del plan de estudio del área tecnología e informática  [En el plan de estudio se da mayor relevancia al pensamiento computacional]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A continuación, se mencionará una lista de aspectos a evaluar al hacer la revisión del plan de estudio del área tecnología e informática  [El plan de estudio del área promueve la transición desde la alfabetización digital a las ciencias de la computación.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A continuación, se mencionará una lista de aspectos a evaluar al hacer la revisión del plan de estudio del área tecnología e informática  [El plan de estudios del área le permite al docente destacar la importancia del pensamiento computacional y su influencia en la formación de los estudiantes]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A continuación, se mencionará una lista de aspectos a evaluar al hacer la revisión del plan de estudio del área tecnología e informática  [El plan de estudios del área es coherente con la transición de un grado a otro y permite al estudiante desarrollar conocimientos, habilidades y comprensión del pensamiento computacional]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A continuación, se mencionará una lista de aspectos a evaluar al hacer la revisión del plan de estudio del área tecnología e informática  [El plan de estudios del área incluye trabajo práctico para el desarrollo del pensamiento computacional.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A continuación, se mencionará una lista de aspectos a evaluar al hacer la revisión del plan de estudio del área tecnología e informática  [El plan de estudio del área plantea espacios en los que personas que trabajan en ocupaciones relacionadas con áreas STEM socialicen sus experiencias con los/las estudiantes]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A continuación, se mencionará una lista de aspectos a evaluar al hacer la revisión del plan de estudio del área tecnología e informática  [El plan de estudio incluye actividades transversales con áreas No-STEM, para el desarrollo del pensamiento computacional]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A continuación, se mencionará una lista de aspectos a evaluar al hacer la revisión del plan de estudio del área tecnología e informática  [El plan de estudio considera aspectos para la inclusión de estudiantes con trastornos de aprendizaje y/o discapacidad]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A continuación, se mencionará una lista de aspectos a evaluar al hacer la revisión del plan de estudio del área tecnología e informática  [Entre los responsables del plan de estudios del área y los recursos educativos se incluye personal experto en la atención a estudiantes con necesidades educativas especiales]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A continuación, se mencionará una lista de aspectos a evaluar al hacer la revisión del plan de estudio del área tecnología e informática  [El plan de estudios del área hace explícita la pedagogía a utilizar y las adaptaciones para estudiantes con trastornos del aprendizaje y/o con discapacidad]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A continuación, se mencionará una lista de aspectos a evaluar al hacer la revisión del plan de estudio del área tecnología e informática  [El plan de estudio del área cuenta con una estructura clara que permite disminuir las diferencias en el desempeño de niños y niñas]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En caso de haber leído un plan de estudio de otra área en la que se desarrolle pensamiento computacional, por favor indique la información relevante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por favor transcriba la Misión de la institución educativa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por favor transcriba la Visión de la institución educativa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan de área deseadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1 En el plan de estudios se especifica como responsables de su elaboración a los docentes encargados del área</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2 El plan de estudio incluye actividades básicas de ofimática y/o alfabetización digital, y de programación y/o desarrollo del pensamiento computacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3 En el plan de estudio se da mayor relevancia al pensamiento computacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4 El plan de estudio del área promueve la transición desde la alfabetización digital a las ciencias de la computación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5 El plan de estudios del área le permite al docente destacar la importancia del pensamiento computacional y su influencia en la formación de los estudiantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6 El plan de estudios del área es coherente con la transición de un grado a otro y permite al estudiante desarrollar conocimientos, habilidades y comprensión del pensamiento computacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7 El plan de estudios del área incluye trabajo práctico para el desarrollo del pensamiento computacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8 El plan de estudio del área plantea espacios en los que personas que trabajan en ocupaciones relacionadas con áreas STEM socialicen sus experiencias con los/las estudiantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9 El plan de estudio incluye actividades transversales con áreas No-STEM, para el desarrollo del pensamiento computacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10 El plan de estudio considera aspectos para la inclusión de estudiantes con trastornos de aprendizaje y/o discapacidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11 Entre los responsables del plan de estudios del área y los recursos educativos se incluye personal experto en la atención a estudiantes con necesidades educativas especiales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12 El plan de estudios del área hace explícita la pedagogía a utilizar y las adaptaciones para estudiantes con trastornos del aprendizaje y/o con discapacidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13 El plan de estudio del área cuenta con una estructura clara que permite disminuir las diferencias en el desempeño de niños y niñas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Información otro plan de estudios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Misión de la institución educativa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visión de la institución educativa</t>
   </si>
 </sst>
 </file>
@@ -2093,7 +1523,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2128,11 +1558,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2203,8 +1628,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2232,7 +1661,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2313,2018 +1742,2150 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:DD24"/>
+  <dimension ref="A1:DD31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AM17" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AQ34" activeCellId="0" sqref="AQ34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V3" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V10" activeCellId="0" sqref="10:10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="13.89"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="99.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AA2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AB2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AC2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AD2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AE2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AF2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AG2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AH2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AI2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AK2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AL2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AM2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AN2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AO2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AP2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AR2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AS2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AT2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AU2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AV2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AW2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AX2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AY2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BA2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BB2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BC2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BD2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BE2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BF2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BG2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BH2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BI2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BJ2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BK2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BL2" s="1" t="s">
+      <c r="BL2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BM2" s="1" t="s">
+      <c r="BM2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BN2" s="1" t="s">
+      <c r="BN2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BO2" s="1" t="s">
+      <c r="BO2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="BP2" s="1" t="s">
+      <c r="BP2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="BQ2" s="1" t="s">
+      <c r="BQ2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="BR2" s="1" t="s">
+      <c r="BR2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="BS2" s="1" t="s">
+      <c r="BS2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BT2" s="1" t="s">
+      <c r="BT2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BU2" s="1" t="s">
+      <c r="BU2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BV2" s="1" t="s">
+      <c r="BV2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BW2" s="1" t="s">
+      <c r="BW2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BX2" s="1" t="s">
+      <c r="BX2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BY2" s="1" t="s">
+      <c r="BY2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="BZ2" s="1" t="s">
+      <c r="BZ2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="CA2" s="1" t="s">
+      <c r="CA2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="CB2" s="1" t="s">
+      <c r="CB2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="CC2" s="1" t="s">
+      <c r="CC2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="CD2" s="1" t="s">
+      <c r="CD2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="CE2" s="1" t="s">
+      <c r="CE2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="CF2" s="1" t="s">
+      <c r="CF2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="CG2" s="1" t="s">
+      <c r="CG2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="CH2" s="1" t="s">
+      <c r="CH2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="CI2" s="1" t="s">
+      <c r="CI2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="CJ2" s="1" t="s">
+      <c r="CJ2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="CK2" s="2" t="s">
+      <c r="CK2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="CL2" s="1"/>
-      <c r="CM2" s="1"/>
-      <c r="CN2" s="1"/>
-      <c r="CO2" s="1"/>
-      <c r="CP2" s="1"/>
-      <c r="CQ2" s="1"/>
+      <c r="CL2" s="2"/>
+      <c r="CM2" s="2"/>
+      <c r="CN2" s="2"/>
+      <c r="CO2" s="2"/>
+      <c r="CP2" s="2"/>
+      <c r="CQ2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="Z4" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AA4" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AB4" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AC4" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AD4" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AE4" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AF4" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AG4" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AH4" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AI4" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AJ4" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AK4" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AL4" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AM4" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AN4" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AO4" s="3" t="s">
+      <c r="AO4" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="AP4" s="3" t="s">
+      <c r="AP4" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="AQ4" s="3" t="s">
+      <c r="AQ4" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="AR4" s="3" t="s">
+      <c r="AR4" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="AS4" s="3" t="s">
+      <c r="AS4" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="AT4" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="AU4" s="3" t="s">
+      <c r="AU4" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="AV4" s="3" t="s">
+      <c r="AV4" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AW4" s="3" t="s">
+      <c r="AW4" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AX4" s="3" t="s">
+      <c r="AX4" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AY4" s="3" t="s">
+      <c r="AY4" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="AZ4" s="3" t="s">
+      <c r="AZ4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="BA4" s="3" t="s">
+      <c r="BA4" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="BB4" s="3" t="s">
+      <c r="BB4" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="BC4" s="3" t="s">
+      <c r="BC4" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="BD4" s="3" t="s">
+      <c r="BD4" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="BE4" s="3" t="s">
+      <c r="BE4" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="BF4" s="3" t="s">
+      <c r="BF4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BG4" s="3" t="s">
+      <c r="BG4" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="BH4" s="3" t="s">
+      <c r="BH4" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="BI4" s="3" t="s">
+      <c r="BI4" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="BJ4" s="3" t="s">
+      <c r="BJ4" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="BK4" s="3" t="s">
+      <c r="BK4" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="BL4" s="3" t="s">
+      <c r="BL4" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="BM4" s="3" t="s">
+      <c r="BM4" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="BN4" s="3" t="s">
+      <c r="BN4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="BO4" s="3" t="s">
+      <c r="BO4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="BP4" s="3" t="s">
+      <c r="BP4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="BQ4" s="3" t="s">
+      <c r="BQ4" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="BR4" s="3" t="s">
+      <c r="BR4" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="BS4" s="3" t="s">
+      <c r="BS4" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="BT4" s="3" t="s">
+      <c r="BT4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="BU4" s="3" t="s">
+      <c r="BU4" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="BV4" s="3" t="s">
+      <c r="BV4" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="BW4" s="3" t="s">
+      <c r="BW4" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="BX4" s="3" t="s">
+      <c r="BX4" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="BY4" s="3" t="s">
+      <c r="BY4" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="BZ4" s="3" t="s">
+      <c r="BZ4" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="CA4" s="3" t="s">
+      <c r="CA4" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="CB4" s="3" t="s">
+      <c r="CB4" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="CC4" s="3" t="s">
+      <c r="CC4" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="CD4" s="3" t="s">
+      <c r="CD4" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="CE4" s="3" t="s">
+      <c r="CE4" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="CF4" s="3" t="s">
+      <c r="CF4" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="CG4" s="3" t="s">
+      <c r="CG4" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="CH4" s="3" t="s">
+      <c r="CH4" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="CI4" s="3" t="s">
+      <c r="CI4" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="CJ4" s="3" t="s">
+      <c r="CJ4" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="CK4" s="3" t="s">
+      <c r="CK4" s="4" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="200.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="R8" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="S8" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="T8" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="U8" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="V8" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="W8" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="X8" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="Y8" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="Z8" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AA8" s="1" t="s">
+      <c r="AA8" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AB8" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AC8" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AD8" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AE8" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AF8" s="1" t="s">
+      <c r="AF8" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AG8" s="1" t="s">
+      <c r="AG8" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="AH8" s="1" t="s">
+      <c r="AH8" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="AI8" s="1" t="s">
+      <c r="AI8" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AJ8" s="1" t="s">
+      <c r="AJ8" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AK8" s="1" t="s">
+      <c r="AK8" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="AL8" s="1" t="s">
+      <c r="AL8" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="AM8" s="1" t="s">
+      <c r="AM8" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="AN8" s="1" t="s">
+      <c r="AN8" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="AO8" s="1" t="s">
+      <c r="AO8" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="AP8" s="1" t="s">
+      <c r="AP8" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="AQ8" s="1" t="s">
+      <c r="AQ8" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="AR8" s="1" t="s">
+      <c r="AR8" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="AS8" s="1" t="s">
+      <c r="AS8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AT8" s="1" t="s">
+      <c r="AT8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AU8" s="1" t="s">
+      <c r="AU8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AV8" s="1" t="s">
+      <c r="AV8" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="AW8" s="1" t="s">
+      <c r="AW8" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="AX8" s="1" t="s">
+      <c r="AX8" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="AY8" s="1" t="s">
+      <c r="AY8" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="AZ8" s="1" t="s">
+      <c r="AZ8" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="BA8" s="1" t="s">
+      <c r="BA8" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="BB8" s="1" t="s">
+      <c r="BB8" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="BC8" s="1" t="s">
+      <c r="BC8" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="BD8" s="1" t="s">
+      <c r="BD8" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="BE8" s="1" t="s">
+      <c r="BE8" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="BF8" s="1" t="s">
+      <c r="BF8" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="BG8" s="1" t="s">
+      <c r="BG8" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="BH8" s="1" t="s">
+      <c r="BH8" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="BI8" s="1" t="s">
+      <c r="BI8" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="BJ8" s="1" t="s">
+      <c r="BJ8" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="BK8" s="1" t="s">
+      <c r="BK8" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="BL8" s="1" t="s">
+      <c r="BL8" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="BM8" s="1" t="s">
+      <c r="BM8" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="BN8" s="1" t="s">
+      <c r="BN8" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="BO8" s="1" t="s">
+      <c r="BO8" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="BP8" s="1" t="s">
+      <c r="BP8" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="BQ8" s="1" t="s">
+      <c r="BQ8" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="BR8" s="1" t="s">
+      <c r="BR8" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="BS8" s="1" t="s">
+      <c r="BS8" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="BT8" s="1" t="s">
+      <c r="BT8" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="BU8" s="1" t="s">
+      <c r="BU8" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="BV8" s="1" t="s">
+      <c r="BV8" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="BW8" s="1" t="s">
+      <c r="BW8" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="BX8" s="1" t="s">
+      <c r="BX8" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="BY8" s="1" t="s">
+      <c r="BY8" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="BZ8" s="1" t="s">
+      <c r="BZ8" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="CA8" s="1" t="s">
+      <c r="CA8" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="CB8" s="1" t="s">
+      <c r="CB8" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="CC8" s="1" t="s">
+      <c r="CC8" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="CD8" s="1" t="s">
+      <c r="CD8" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="CE8" s="1" t="s">
+      <c r="CE8" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="CF8" s="1" t="s">
+      <c r="CF8" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="CG8" s="1" t="s">
+      <c r="CG8" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="CH8" s="1" t="s">
+      <c r="CH8" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="CI8" s="1" t="s">
+      <c r="CI8" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="CJ8" s="1" t="s">
+      <c r="CJ8" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="CK8" s="1" t="s">
+      <c r="CK8" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="CL8" s="1" t="s">
+      <c r="CL8" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="CM8" s="1" t="s">
+      <c r="CM8" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="CN8" s="1" t="s">
+      <c r="CN8" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="CO8" s="1" t="s">
+      <c r="CO8" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="CP8" s="1" t="s">
+      <c r="CP8" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="CQ8" s="1" t="s">
+      <c r="CQ8" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="CR8" s="1" t="s">
+      <c r="CR8" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="CS8" s="1" t="s">
+      <c r="CS8" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="CT8" s="1" t="s">
+      <c r="CT8" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="CU8" s="1" t="s">
+      <c r="CU8" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="CV8" s="1" t="s">
+      <c r="CV8" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="CW8" s="1" t="s">
+      <c r="CW8" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="CX8" s="2" t="s">
+      <c r="CX8" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="CY8" s="1"/>
-      <c r="CZ8" s="1"/>
-      <c r="DA8" s="1"/>
-      <c r="DB8" s="1"/>
-      <c r="DC8" s="1"/>
-      <c r="DD8" s="1"/>
+      <c r="CY8" s="2"/>
+      <c r="CZ8" s="2"/>
+      <c r="DA8" s="2"/>
+      <c r="DB8" s="2"/>
+      <c r="DC8" s="2"/>
+      <c r="DD8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="99.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="1"/>
-      <c r="AM9" s="1"/>
-      <c r="AN9" s="1"/>
-      <c r="AO9" s="1"/>
-      <c r="AP9" s="1"/>
-      <c r="AQ9" s="1"/>
-      <c r="AR9" s="1"/>
-      <c r="AS9" s="1"/>
-      <c r="AT9" s="1"/>
-      <c r="AU9" s="1"/>
-      <c r="AV9" s="1"/>
-      <c r="AW9" s="1"/>
-      <c r="AX9" s="1"/>
-      <c r="AY9" s="1"/>
-      <c r="AZ9" s="1"/>
-      <c r="BA9" s="1"/>
-      <c r="BB9" s="1"/>
-      <c r="BC9" s="1"/>
-      <c r="BD9" s="1"/>
-      <c r="BE9" s="1"/>
-      <c r="BF9" s="1"/>
-      <c r="BG9" s="1"/>
-      <c r="BH9" s="1"/>
-      <c r="BI9" s="1"/>
-      <c r="BJ9" s="1"/>
-      <c r="BK9" s="1"/>
-      <c r="BL9" s="1"/>
-      <c r="BM9" s="1"/>
-      <c r="BN9" s="1"/>
-      <c r="BO9" s="1"/>
-      <c r="BP9" s="1"/>
-      <c r="BQ9" s="1"/>
-      <c r="BR9" s="1"/>
-      <c r="BS9" s="1"/>
-      <c r="BT9" s="1"/>
-      <c r="BU9" s="1"/>
-      <c r="BV9" s="1"/>
-      <c r="BW9" s="1"/>
-      <c r="BX9" s="1"/>
-      <c r="BY9" s="1"/>
-      <c r="BZ9" s="1"/>
-      <c r="CA9" s="1"/>
-      <c r="CB9" s="1"/>
-      <c r="CC9" s="1"/>
-      <c r="CD9" s="1"/>
-      <c r="CE9" s="1"/>
-      <c r="CF9" s="1"/>
-      <c r="CG9" s="1"/>
-      <c r="CH9" s="1"/>
-      <c r="CI9" s="1"/>
-      <c r="CJ9" s="1"/>
-      <c r="CK9" s="1"/>
-      <c r="CL9" s="1"/>
-      <c r="CM9" s="1"/>
-      <c r="CN9" s="1"/>
-      <c r="CO9" s="1"/>
-      <c r="CP9" s="1"/>
-      <c r="CQ9" s="1"/>
-      <c r="CR9" s="1"/>
-      <c r="CS9" s="1"/>
-      <c r="CT9" s="1"/>
-      <c r="CU9" s="1"/>
-      <c r="CV9" s="1"/>
-      <c r="CW9" s="1"/>
-      <c r="CX9" s="2"/>
-      <c r="CY9" s="1"/>
-      <c r="CZ9" s="1"/>
-      <c r="DA9" s="1"/>
-      <c r="DB9" s="1"/>
-      <c r="DC9" s="1"/>
-      <c r="DD9" s="1"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="2"/>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="2"/>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="2"/>
+      <c r="BD9" s="2"/>
+      <c r="BE9" s="2"/>
+      <c r="BF9" s="2"/>
+      <c r="BG9" s="2"/>
+      <c r="BH9" s="2"/>
+      <c r="BI9" s="2"/>
+      <c r="BJ9" s="2"/>
+      <c r="BK9" s="2"/>
+      <c r="BL9" s="2"/>
+      <c r="BM9" s="2"/>
+      <c r="BN9" s="2"/>
+      <c r="BO9" s="2"/>
+      <c r="BP9" s="2"/>
+      <c r="BQ9" s="2"/>
+      <c r="BR9" s="2"/>
+      <c r="BS9" s="2"/>
+      <c r="BT9" s="2"/>
+      <c r="BU9" s="2"/>
+      <c r="BV9" s="2"/>
+      <c r="BW9" s="2"/>
+      <c r="BX9" s="2"/>
+      <c r="BY9" s="2"/>
+      <c r="BZ9" s="2"/>
+      <c r="CA9" s="2"/>
+      <c r="CB9" s="2"/>
+      <c r="CC9" s="2"/>
+      <c r="CD9" s="2"/>
+      <c r="CE9" s="2"/>
+      <c r="CF9" s="2"/>
+      <c r="CG9" s="2"/>
+      <c r="CH9" s="2"/>
+      <c r="CI9" s="2"/>
+      <c r="CJ9" s="2"/>
+      <c r="CK9" s="2"/>
+      <c r="CL9" s="2"/>
+      <c r="CM9" s="2"/>
+      <c r="CN9" s="2"/>
+      <c r="CO9" s="2"/>
+      <c r="CP9" s="2"/>
+      <c r="CQ9" s="2"/>
+      <c r="CR9" s="2"/>
+      <c r="CS9" s="2"/>
+      <c r="CT9" s="2"/>
+      <c r="CU9" s="2"/>
+      <c r="CV9" s="2"/>
+      <c r="CW9" s="2"/>
+      <c r="CX9" s="3"/>
+      <c r="CY9" s="2"/>
+      <c r="CZ9" s="2"/>
+      <c r="DA9" s="2"/>
+      <c r="DB9" s="2"/>
+      <c r="DC9" s="2"/>
+      <c r="DD9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="99.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="O10" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="P10" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="Q10" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="R10" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="S10" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="T10" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="U10" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="V10" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="W10" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="X10" s="1" t="s">
+      <c r="X10" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="Y10" s="1" t="s">
+      <c r="Y10" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="Z10" s="1" t="s">
+      <c r="Z10" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="AA10" s="1" t="s">
+      <c r="AA10" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="AB10" s="1" t="s">
+      <c r="AB10" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="AC10" s="1" t="s">
+      <c r="AC10" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="AD10" s="1" t="s">
+      <c r="AD10" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="AE10" s="1" t="s">
+      <c r="AE10" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="AF10" s="1" t="s">
+      <c r="AF10" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="AG10" s="1" t="s">
+      <c r="AG10" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="AH10" s="1" t="s">
+      <c r="AH10" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="AI10" s="1" t="s">
+      <c r="AI10" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="AJ10" s="1" t="s">
+      <c r="AJ10" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="AK10" s="1" t="s">
+      <c r="AK10" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="AL10" s="1" t="s">
+      <c r="AL10" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AM10" s="1" t="s">
+      <c r="AM10" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="AN10" s="1" t="s">
+      <c r="AN10" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="AO10" s="1" t="s">
+      <c r="AO10" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="AP10" s="1" t="s">
+      <c r="AP10" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="AQ10" s="1" t="s">
+      <c r="AQ10" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="AR10" s="1" t="s">
+      <c r="AR10" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="AS10" s="1" t="s">
+      <c r="AS10" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AT10" s="1" t="s">
+      <c r="AT10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AU10" s="1" t="s">
+      <c r="AU10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AV10" s="1" t="s">
+      <c r="AV10" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="AW10" s="1" t="s">
+      <c r="AW10" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="AX10" s="1" t="s">
+      <c r="AX10" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="AY10" s="1" t="s">
+      <c r="AY10" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="AZ10" s="1" t="s">
+      <c r="AZ10" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="BA10" s="1" t="s">
+      <c r="BA10" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="BB10" s="1" t="s">
+      <c r="BB10" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="BC10" s="1" t="s">
+      <c r="BC10" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="BD10" s="1" t="s">
+      <c r="BD10" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="BE10" s="1" t="s">
+      <c r="BE10" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="BF10" s="1" t="s">
+      <c r="BF10" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="BG10" s="1" t="s">
+      <c r="BG10" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="BH10" s="1" t="s">
+      <c r="BH10" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="BI10" s="1" t="s">
+      <c r="BI10" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="BJ10" s="1" t="s">
+      <c r="BJ10" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="BK10" s="1" t="s">
+      <c r="BK10" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="BL10" s="1" t="s">
+      <c r="BL10" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="BM10" s="1" t="s">
+      <c r="BM10" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="BN10" s="1" t="s">
+      <c r="BN10" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="BO10" s="1" t="s">
+      <c r="BO10" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="BP10" s="1" t="s">
+      <c r="BP10" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="BQ10" s="1" t="s">
+      <c r="BQ10" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="BR10" s="1" t="s">
+      <c r="BR10" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="BS10" s="1" t="s">
+      <c r="BS10" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="BT10" s="1" t="s">
+      <c r="BT10" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="BU10" s="1" t="s">
+      <c r="BU10" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="BV10" s="1" t="s">
+      <c r="BV10" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="BW10" s="1" t="s">
+      <c r="BW10" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="BX10" s="1" t="s">
+      <c r="BX10" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="BY10" s="1" t="s">
+      <c r="BY10" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="BZ10" s="1" t="s">
+      <c r="BZ10" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="CA10" s="1" t="s">
+      <c r="CA10" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="CB10" s="1" t="s">
+      <c r="CB10" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="CC10" s="1" t="s">
+      <c r="CC10" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="CD10" s="1" t="s">
+      <c r="CD10" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="CE10" s="1" t="s">
+      <c r="CE10" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="CF10" s="1" t="s">
+      <c r="CF10" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="CG10" s="1" t="s">
+      <c r="CG10" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="CH10" s="1" t="s">
+      <c r="CH10" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="CI10" s="1" t="s">
+      <c r="CI10" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="CJ10" s="1" t="s">
+      <c r="CJ10" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="CK10" s="1" t="s">
+      <c r="CK10" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="CL10" s="1" t="s">
+      <c r="CL10" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="CM10" s="1" t="s">
+      <c r="CM10" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="CN10" s="1" t="s">
+      <c r="CN10" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="CO10" s="1" t="s">
+      <c r="CO10" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="CP10" s="1" t="s">
+      <c r="CP10" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="CQ10" s="1" t="s">
+      <c r="CQ10" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="CR10" s="1" t="s">
+      <c r="CR10" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="CS10" s="1" t="s">
+      <c r="CS10" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CT10" s="1" t="s">
+      <c r="CT10" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="CU10" s="1" t="s">
+      <c r="CU10" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="CV10" s="1" t="s">
+      <c r="CV10" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="CW10" s="1" t="s">
+      <c r="CW10" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="CX10" s="2" t="s">
+      <c r="CX10" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="CY10" s="1"/>
-      <c r="CZ10" s="1"/>
-      <c r="DA10" s="1"/>
-      <c r="DB10" s="1"/>
-      <c r="DC10" s="1"/>
-      <c r="DD10" s="1"/>
+      <c r="CY10" s="2"/>
+      <c r="CZ10" s="2"/>
+      <c r="DA10" s="2"/>
+      <c r="DB10" s="2"/>
+      <c r="DC10" s="2"/>
+      <c r="DD10" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="50.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="N13" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="O13" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="P13" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="R13" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="S13" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="T13" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="U13" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="V13" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="W13" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="X13" s="1" t="s">
+      <c r="X13" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="Y13" s="1" t="s">
+      <c r="Y13" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="Z13" s="1" t="s">
+      <c r="Z13" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AA13" s="1" t="s">
+      <c r="AA13" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AB13" s="1" t="s">
+      <c r="AB13" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AC13" s="1" t="s">
+      <c r="AC13" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AD13" s="1" t="s">
+      <c r="AD13" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AE13" s="1" t="s">
+      <c r="AE13" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AF13" s="1" t="s">
+      <c r="AF13" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AG13" s="1" t="s">
+      <c r="AG13" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AH13" s="1" t="s">
+      <c r="AH13" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AI13" s="1" t="s">
+      <c r="AI13" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AJ13" s="1" t="s">
+      <c r="AJ13" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AK13" s="1" t="s">
+      <c r="AK13" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AL13" s="1" t="s">
+      <c r="AL13" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AM13" s="1" t="s">
+      <c r="AM13" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AN13" s="1" t="s">
+      <c r="AN13" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AO13" s="1" t="s">
+      <c r="AO13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AP13" s="1" t="s">
+      <c r="AP13" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="AQ13" s="1" t="s">
+      <c r="AQ13" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="AR13" s="1" t="s">
+      <c r="AR13" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="AS13" s="1" t="s">
+      <c r="AS13" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="AT13" s="1" t="s">
+      <c r="AT13" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="AU13" s="1" t="s">
+      <c r="AU13" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="AV13" s="1" t="s">
+      <c r="AV13" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="AW13" s="1" t="s">
+      <c r="AW13" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="AX13" s="1" t="s">
+      <c r="AX13" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="AY13" s="1" t="s">
+      <c r="AY13" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="AZ13" s="1" t="s">
+      <c r="AZ13" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="BA13" s="1" t="s">
+      <c r="BA13" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="BB13" s="1" t="s">
+      <c r="BB13" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="BC13" s="1" t="s">
+      <c r="BC13" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="BD13" s="1" t="s">
+      <c r="BD13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BE13" s="1" t="s">
+      <c r="BE13" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="BF13" s="1" t="s">
+      <c r="BF13" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="BG13" s="1" t="s">
+      <c r="BG13" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="BH13" s="1" t="s">
+      <c r="BH13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="BI13" s="2" t="s">
+      <c r="BI13" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="BJ13" s="1"/>
-      <c r="BK13" s="1"/>
-      <c r="BL13" s="1"/>
+      <c r="BJ13" s="2"/>
+      <c r="BK13" s="2"/>
+      <c r="BL13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="Z14" s="3"/>
+      <c r="Z14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="50.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="O15" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="P15" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="Q15" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="R15" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="S15" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="T15" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="U15" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="V15" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="W15" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="X15" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="Y15" s="1" t="s">
+      <c r="Y15" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="Z15" s="1" t="s">
+      <c r="Z15" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="AA15" s="1" t="s">
+      <c r="AA15" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="AB15" s="1" t="s">
+      <c r="AB15" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="AC15" s="1" t="s">
+      <c r="AC15" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="AD15" s="1" t="s">
+      <c r="AD15" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="AE15" s="1" t="s">
+      <c r="AE15" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="AF15" s="1" t="s">
+      <c r="AF15" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="AG15" s="1" t="s">
+      <c r="AG15" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="AH15" s="1" t="s">
+      <c r="AH15" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="AI15" s="1" t="s">
+      <c r="AI15" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="AJ15" s="1" t="s">
+      <c r="AJ15" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="AK15" s="1" t="s">
+      <c r="AK15" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="AL15" s="1" t="s">
+      <c r="AL15" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="AM15" s="1" t="s">
+      <c r="AM15" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="AN15" s="1" t="s">
+      <c r="AN15" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="AO15" s="1" t="s">
+      <c r="AO15" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AP15" s="1" t="s">
+      <c r="AP15" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="AQ15" s="1" t="s">
+      <c r="AQ15" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="AR15" s="1" t="s">
+      <c r="AR15" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="AS15" s="1" t="s">
+      <c r="AS15" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="AT15" s="1" t="s">
+      <c r="AT15" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="AU15" s="1" t="s">
+      <c r="AU15" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="AV15" s="1" t="s">
+      <c r="AV15" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="AW15" s="1" t="s">
+      <c r="AW15" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="AX15" s="1" t="s">
+      <c r="AX15" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="AY15" s="1" t="s">
+      <c r="AY15" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AZ15" s="1" t="s">
+      <c r="AZ15" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="BA15" s="1" t="s">
+      <c r="BA15" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="BB15" s="1" t="s">
+      <c r="BB15" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="BC15" s="1" t="s">
+      <c r="BC15" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="BD15" s="1" t="s">
+      <c r="BD15" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="BE15" s="1" t="s">
+      <c r="BE15" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="BF15" s="1" t="s">
+      <c r="BF15" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="BG15" s="1" t="s">
+      <c r="BG15" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="BH15" s="1" t="s">
+      <c r="BH15" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="BI15" s="2" t="s">
+      <c r="BI15" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="BJ15" s="1"/>
-      <c r="BK15" s="1"/>
-      <c r="BL15" s="1"/>
+      <c r="BJ15" s="2"/>
+      <c r="BK15" s="2"/>
+      <c r="BL15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z16" s="3"/>
+      <c r="Z16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z17" s="3"/>
+      <c r="Z17" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="454" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="K21" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L21" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="M21" s="6" t="s">
+      <c r="M21" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="N21" s="6" t="s">
+      <c r="N21" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="O21" s="6" t="s">
+      <c r="O21" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="P21" s="6" t="s">
+      <c r="P21" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="Q21" s="6" t="s">
+      <c r="Q21" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="R21" s="6" t="s">
+      <c r="R21" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="S21" s="6" t="s">
+      <c r="S21" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="T21" s="6" t="s">
+      <c r="T21" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="U21" s="6" t="s">
+      <c r="U21" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="V21" s="6" t="s">
+      <c r="V21" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="W21" s="6" t="s">
+      <c r="W21" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="X21" s="6" t="s">
+      <c r="X21" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="Y21" s="6" t="s">
+      <c r="Y21" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="Z21" s="6" t="s">
+      <c r="Z21" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="AA21" s="6" t="s">
+      <c r="AA21" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="AB21" s="6" t="s">
+      <c r="AB21" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="AC21" s="6" t="s">
+      <c r="AC21" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="AD21" s="6" t="s">
+      <c r="AD21" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="AE21" s="6" t="s">
+      <c r="AE21" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="AF21" s="6" t="s">
+      <c r="AF21" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="AG21" s="6" t="s">
+      <c r="AG21" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="AH21" s="6" t="s">
+      <c r="AH21" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="AI21" s="6" t="s">
+      <c r="AI21" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="AJ21" s="6" t="s">
+      <c r="AJ21" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="AK21" s="6" t="s">
+      <c r="AK21" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="AL21" s="6" t="s">
+      <c r="AL21" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="AM21" s="6" t="s">
+      <c r="AM21" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="AN21" s="6" t="s">
+      <c r="AN21" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="AO21" s="6" t="s">
+      <c r="AO21" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="AP21" s="6" t="s">
+      <c r="AP21" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="AQ21" s="6" t="s">
+      <c r="AQ21" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="AR21" s="6" t="s">
+      <c r="AR21" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="AS21" s="6" t="s">
+      <c r="AS21" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="AT21" s="6" t="s">
+      <c r="AT21" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="AU21" s="6" t="s">
+      <c r="AU21" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="AV21" s="6" t="s">
+      <c r="AV21" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="AW21" s="6" t="s">
+      <c r="AW21" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="AX21" s="7"/>
-      <c r="AY21" s="7"/>
-      <c r="AZ21" s="7"/>
-      <c r="BA21" s="7"/>
-      <c r="BB21" s="7"/>
-      <c r="BC21" s="7"/>
+      <c r="AX21" s="1"/>
+      <c r="AY21" s="1"/>
+      <c r="AZ21" s="1"/>
+      <c r="BA21" s="1"/>
+      <c r="BB21" s="1"/>
+      <c r="BC21" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="H24" s="0" t="s">
+      <c r="H24" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="I24" s="0" t="s">
+      <c r="I24" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="J24" s="0" t="s">
+      <c r="J24" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="K24" s="0" t="s">
+      <c r="K24" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="L24" s="0" t="s">
+      <c r="L24" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="M24" s="0" t="s">
+      <c r="M24" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="N24" s="0" t="s">
+      <c r="N24" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="O24" s="0" t="s">
+      <c r="O24" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="P24" s="0" t="s">
+      <c r="P24" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="Q24" s="0" t="s">
+      <c r="Q24" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="R24" s="0" t="s">
+      <c r="R24" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="S24" s="0" t="s">
+      <c r="S24" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="T24" s="0" t="s">
+      <c r="T24" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="U24" s="0" t="s">
+      <c r="U24" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="V24" s="0" t="s">
+      <c r="V24" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="W24" s="0" t="s">
+      <c r="W24" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="X24" s="0" t="s">
+      <c r="X24" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="Y24" s="0" t="s">
+      <c r="Y24" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="Z24" s="0" t="s">
+      <c r="Z24" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="AA24" s="0" t="s">
+      <c r="AA24" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="AB24" s="0" t="s">
+      <c r="AB24" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="AC24" s="0" t="s">
+      <c r="AC24" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="AD24" s="0" t="s">
+      <c r="AD24" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="AE24" s="0" t="s">
+      <c r="AE24" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="AF24" s="0" t="s">
+      <c r="AF24" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="AG24" s="0" t="s">
+      <c r="AG24" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="AH24" s="0" t="s">
+      <c r="AH24" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="AI24" s="0" t="s">
+      <c r="AI24" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="AJ24" s="0" t="s">
+      <c r="AJ24" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="AK24" s="0" t="s">
+      <c r="AK24" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="AL24" s="0" t="s">
+      <c r="AL24" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="AM24" s="0" t="s">
+      <c r="AM24" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="AN24" s="0" t="s">
+      <c r="AN24" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="AO24" s="0" t="s">
+      <c r="AO24" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="AP24" s="0" t="s">
+      <c r="AP24" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="AQ24" s="0" t="s">
+      <c r="AQ24" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="AR24" s="0" t="s">
+      <c r="AR24" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="AS24" s="0" t="s">
+      <c r="AS24" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="AT24" s="0" t="s">
+      <c r="AT24" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="AU24" s="0" t="s">
+      <c r="AU24" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="AV24" s="0" t="s">
+      <c r="AV24" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="AW24" s="0" t="s">
+      <c r="AW24" s="1" t="s">
         <v>463</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>497</v>
       </c>
     </row>
   </sheetData>
